--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462456.150948605</v>
+        <v>387643.4472495852</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430052.9979393119</v>
+        <v>406463.2981009819</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12067207.45009627</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8042865.68897362</v>
+        <v>8174907.029588638</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -721,7 +721,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.5825568932142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>130.0567675788274</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>83.29299802259976</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>172.5764158182482</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
+      <c r="W8" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>56.91690033700354</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.048448096658505</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>109.4139830574008</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.46550985000066</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.2716366332242</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.75911149906594</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>276.1565137023554</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>116.2509914379191</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>127.6437712350552</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826721</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>21.57990476584689</v>
+        <v>21.26781836854102</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>4.669905662784412</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>65.85619905024714</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>57.30159287878429</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>215.0393446428039</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>26.11970087160504</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>43.31785343913975</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>324.4964282009512</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.8423427450531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>350.9522964275093</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>143.8939439276403</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>56.881969878158</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.8683972746511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>292.4116868811958</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>6.028559943668006</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>298.3654036477783</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>336.5765604298713</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>114.8229496409578</v>
+        <v>3.51694302452181</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>91.82580793753515</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>295.9508027556515</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6269039556348</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.82811972447736</v>
+        <v>49.92693022021933</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>276.9993050405681</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.2907482601406</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>94.59270453218367</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>156.1271626621471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>832.6866832087903</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>630.5000885675563</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>630.5000885675563</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="W3" t="n">
-        <v>384.2867411876791</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X3" t="n">
-        <v>176.4352409821462</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.4352409821462</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.7447050367114</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>132.7447050367114</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>132.7447050367114</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>132.7447050367114</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>132.7447050367114</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.7447050367114</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411.587349213889</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>411.587349213889</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>262.6529395526377</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>103.4154845471822</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4655,10 +4655,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y6" t="n">
-        <v>411.587349213889</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
         <v>19.28114311021272</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4919,16 +4919,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>579.9844679696338</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D11" t="n">
-        <v>301.0384945329111</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901064</v>
@@ -5074,19 +5074,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>858.9304414063565</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.5455503773155</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618843</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618843</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
         <v>159.4923828364511</v>
@@ -5129,13 +5129,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>679.0427979944839</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N12" t="n">
-        <v>828.8278839945614</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945614</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5150,22 +5150,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>994.1068800039666</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>994.1068800039666</v>
       </c>
       <c r="V12" t="n">
-        <v>869.473946577679</v>
+        <v>758.9547717722239</v>
       </c>
       <c r="W12" t="n">
-        <v>615.2365898494775</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="X12" t="n">
-        <v>407.3850896439446</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.6247908789907</v>
+        <v>504.7174150440222</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>185.391191902125</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322.0072940269171</v>
+        <v>654.6699625281963</v>
       </c>
       <c r="C14" t="n">
-        <v>322.0072940269171</v>
+        <v>654.6699625281963</v>
       </c>
       <c r="D14" t="n">
-        <v>322.0072940269171</v>
+        <v>654.6699625281963</v>
       </c>
       <c r="E14" t="n">
-        <v>322.0072940269171</v>
+        <v>654.6699625281963</v>
       </c>
       <c r="F14" t="n">
-        <v>322.0072940269171</v>
+        <v>243.6840577385887</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0072940269171</v>
+        <v>218.1571520484632</v>
       </c>
       <c r="H14" t="n">
-        <v>43.06132059019444</v>
+        <v>218.1571520484632</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618843</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>96.93923871827204</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438682</v>
+        <v>305.6565612977712</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>616.865483548007</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173955</v>
+        <v>979.7519185640729</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823541</v>
+        <v>1333.878237938973</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901062</v>
+        <v>1623.082041653883</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491931</v>
+        <v>1832.236414250551</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>1912.08087786097</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>1813.956096613572</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>1813.956096613572</v>
       </c>
       <c r="T14" t="n">
-        <v>879.8992409003624</v>
+        <v>1592.318175781759</v>
       </c>
       <c r="U14" t="n">
-        <v>879.8992409003624</v>
+        <v>1338.501505141881</v>
       </c>
       <c r="V14" t="n">
-        <v>600.9532674636398</v>
+        <v>1007.43861779831</v>
       </c>
       <c r="W14" t="n">
-        <v>600.9532674636398</v>
+        <v>654.6699625281963</v>
       </c>
       <c r="X14" t="n">
-        <v>600.9532674636398</v>
+        <v>654.6699625281963</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.0072940269171</v>
+        <v>654.6699625281963</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>474.4130622961982</v>
+        <v>748.6504747854824</v>
       </c>
       <c r="C15" t="n">
-        <v>299.9600330150712</v>
+        <v>631.2252309087964</v>
       </c>
       <c r="D15" t="n">
-        <v>151.0256233538199</v>
+        <v>482.2908212475452</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618843</v>
+        <v>323.0533662420897</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618843</v>
+        <v>176.5188082689747</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618843</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618843</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618843</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318534</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="K15" t="n">
-        <v>165.799003153448</v>
+        <v>235.3935185137498</v>
       </c>
       <c r="L15" t="n">
-        <v>411.954469746149</v>
+        <v>561.8929756923576</v>
       </c>
       <c r="M15" t="n">
-        <v>641.2451212288495</v>
+        <v>994.8816638756023</v>
       </c>
       <c r="N15" t="n">
-        <v>641.2451212288495</v>
+        <v>1455.037287624462</v>
       </c>
       <c r="O15" t="n">
-        <v>907.7419348121333</v>
+        <v>1518.388592024567</v>
       </c>
       <c r="P15" t="n">
-        <v>1104.626054809422</v>
+        <v>1785.932577937</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>1912.08087786097</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>1839.076492680902</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>1674.085213826042</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>1674.085213826042</v>
       </c>
       <c r="U15" t="n">
-        <v>1104.626054809422</v>
+        <v>1445.891439950959</v>
       </c>
       <c r="V15" t="n">
-        <v>1104.626054809422</v>
+        <v>1210.739331719217</v>
       </c>
       <c r="W15" t="n">
-        <v>850.3886980812201</v>
+        <v>956.5019749910152</v>
       </c>
       <c r="X15" t="n">
-        <v>850.3886980812201</v>
+        <v>748.6504747854824</v>
       </c>
       <c r="Y15" t="n">
-        <v>642.6283993162663</v>
+        <v>748.6504747854824</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="C16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="D16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="E16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="F16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="G16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="H16" t="n">
-        <v>177.1948334012702</v>
+        <v>183.8252772815438</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618843</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618843</v>
+        <v>38.24161755721939</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618843</v>
+        <v>59.50088325727408</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492713</v>
+        <v>142.2318586473015</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160686</v>
+        <v>239.8491955519027</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168851</v>
+        <v>340.5800267922417</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754622</v>
+        <v>417.6049576856847</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031358</v>
+        <v>459.9924103041388</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031358</v>
+        <v>459.9924103041388</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031358</v>
+        <v>459.9924103041388</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9927170031358</v>
+        <v>459.9924103041388</v>
       </c>
       <c r="T16" t="n">
-        <v>198.9927170031358</v>
+        <v>459.9924103041388</v>
       </c>
       <c r="U16" t="n">
-        <v>198.9927170031358</v>
+        <v>459.9924103041388</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="W16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.9927170031358</v>
+        <v>205.3079220982519</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2107.607341885688</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2692.432014591167</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2438.670229229258</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>2107.607341885688</v>
+        <v>1927.025048290972</v>
       </c>
       <c r="X17" t="n">
-        <v>2107.607341885688</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y17" t="n">
-        <v>2107.607341885688</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5612,7 +5612,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2476.569858826099</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C20" t="n">
-        <v>2107.607341885688</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5843,37 +5843,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5931,31 +5931,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>336.2769833124028</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>336.2769833124028</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1315.737983561872</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C23" t="n">
-        <v>946.7754666214607</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D23" t="n">
-        <v>946.7754666214607</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>560.9872140232164</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2465.942913862886</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>2092.477155601806</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y23" t="n">
-        <v>1702.337823625994</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.69838933464703</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C25" t="n">
-        <v>97.69838933464703</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>97.69838933464703</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6189,10 +6189,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2369.374921118271</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1995.909162857191</v>
       </c>
     </row>
     <row r="27">
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694738</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694738</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5276295785111</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1483.703156598057</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1483.703156598057</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1483.703156598057</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1097.914903999813</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.308246834948</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>1873.842488573869</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y29" t="n">
-        <v>1483.703156598057</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="30">
@@ -6533,10 +6533,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6551,16 +6551,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2339.875982476214</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="C31" t="n">
-        <v>2339.875982476214</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="D31" t="n">
-        <v>2339.875982476214</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="E31" t="n">
-        <v>2191.96288889382</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="F31" t="n">
-        <v>2191.96288889382</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y31" t="n">
-        <v>2521.524447306454</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2476.569858826099</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C32" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
@@ -6706,19 +6706,19 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
         <v>2697.149091018222</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6782,40 +6782,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>325.6879402326646</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C34" t="n">
-        <v>156.7517573047577</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064344</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.3364050629043</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2255.520561484594</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C35" t="n">
-        <v>1954.141365880777</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D35" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548716</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y35" t="n">
-        <v>2642.120401548716</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2540.369809567131</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>2250.95263953017</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.815961912944</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C38" t="n">
-        <v>1426.815961912944</v>
+        <v>742.9558680926493</v>
       </c>
       <c r="D38" t="n">
-        <v>1068.550263306194</v>
+        <v>384.6901694858988</v>
       </c>
       <c r="E38" t="n">
-        <v>1068.550263306194</v>
+        <v>384.6901694858988</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W38" t="n">
-        <v>1816.955293888756</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X38" t="n">
-        <v>1816.955293888756</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y38" t="n">
-        <v>1426.815961912944</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,31 +7265,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005475</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>380.6911546495019</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1485.892406545185</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C41" t="n">
-        <v>1116.929889604773</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="D41" t="n">
-        <v>1116.929889604773</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E41" t="n">
-        <v>945.5895825788796</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W41" t="n">
-        <v>1485.892406545185</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X41" t="n">
-        <v>1485.892406545185</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y41" t="n">
-        <v>1485.892406545185</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7502,10 +7502,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7517,16 +7517,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C43" t="n">
-        <v>498.8626623130036</v>
+        <v>677.697741559748</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1464.687040303175</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253591</v>
+        <v>1464.687040303175</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2317.164380266784</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.164380266784</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V44" t="n">
-        <v>2317.164380266784</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W44" t="n">
-        <v>2317.164380266784</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X44" t="n">
-        <v>1943.698622005704</v>
+        <v>1851.286880367296</v>
       </c>
       <c r="Y44" t="n">
-        <v>1553.559290029893</v>
+        <v>1851.286880367296</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>281.3133266100198</v>
       </c>
       <c r="N12" t="n">
-        <v>263.0480264917442</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>84.40768042974372</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>354.6541654994895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>99.73553707378969</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22609,7 +22609,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.95062675665318</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>41.6264035250104</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22804,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>110.0962526177847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>61.77621437078412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>79.11856734267138</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23159,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23202,7 +23202,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23223,7 +23223,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.33425578299913</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D11" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>94.79428962526623</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23314,7 +23314,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536982</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>163.4847355532088</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>90.44711791477106</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>154.4623164153581</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
         <v>153.551289182031</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>389.1917387024394</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194541</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>184.2890106185799</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>51.59574476777948</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>56.45750755039666</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.00130922034576</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268741</v>
+        <v>73.93425515493648</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0857793320303</v>
+        <v>137.6118470468269</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>66.73999539781617</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>54.63455058802097</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
-        <v>222.9160118599466</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7784146948734</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>283.3847696671659</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>157.4819576312212</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>56.01837628787183</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>312.4295077996848</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24144,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>56.82580834555246</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>139.6436969778791</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>380.7563448701064</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1161092074294</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>24.74454051646183</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,16 +24660,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>192.4108057479596</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.7423106070417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>31.78154523597129</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>262.9821018140711</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>99.28891896363714</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.71625607744366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>72.86120488981175</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,13 +25092,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25134,7 +25134,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>246.10908338016</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>66.90748812322926</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>12.66440828754168</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457203</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>96.92615468724722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>292.0530961007536</v>
+        <v>403.3591027171896</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>194.6971903990558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>58.73223886503143</v>
       </c>
       <c r="E41" t="n">
-        <v>212.303466116627</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>152.4187013741505</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25836,7 +25836,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>77.68373658011484</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>69.1575720975172</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>54.02276848602868</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,10 +26076,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>69.58249272689008</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.70869279</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.7086927898</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520354.2281896697</v>
+        <v>674823.9207820224</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>141745.4664845208</v>
+        <v>187164.7872550205</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126063</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>195194.8921689325</v>
       </c>
       <c r="G3" t="n">
-        <v>375583.8824232417</v>
+        <v>185152.0893328027</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213621</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>49441.87186138662</v>
       </c>
       <c r="O3" t="n">
-        <v>95810.56529667097</v>
+        <v>47231.86264112651</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="C4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
         <v>42169.81622231289</v>
       </c>
       <c r="F4" t="n">
-        <v>42169.81622231289</v>
+        <v>43504.47653690848</v>
       </c>
       <c r="G4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="H4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="K4" t="n">
         <v>44802.65617556861</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="M4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44802.6561755686</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
         <v>44802.65617556861</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678014</v>
+        <v>33615.28060221575</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26493,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26505,7 +26505,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38139.58762613967</v>
+        <v>-50357.5982461801</v>
       </c>
       <c r="C6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536763</v>
       </c>
       <c r="D6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536768</v>
       </c>
       <c r="E6" t="n">
-        <v>43392.98961619212</v>
+        <v>31726.03702486756</v>
       </c>
       <c r="F6" t="n">
-        <v>82021.87074542773</v>
+        <v>-93978.10709620458</v>
       </c>
       <c r="G6" t="n">
-        <v>-238295.9286496138</v>
+        <v>-53932.54930499388</v>
       </c>
       <c r="H6" t="n">
-        <v>137287.9537736279</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="I6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="J6" t="n">
-        <v>74228.01117452182</v>
+        <v>68159.59742870263</v>
       </c>
       <c r="K6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.540027809</v>
       </c>
       <c r="L6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="M6" t="n">
-        <v>128530.3707784144</v>
+        <v>122461.9570325953</v>
       </c>
       <c r="N6" t="n">
-        <v>137287.953773628</v>
+        <v>81777.66816642229</v>
       </c>
       <c r="O6" t="n">
-        <v>41477.38847695707</v>
+        <v>83987.67738668231</v>
       </c>
       <c r="P6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278089</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912529</v>
+        <v>208.7913421435326</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26761,13 +26761,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023554</v>
+        <v>478.0202194652424</v>
       </c>
       <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>173.7700814244072</v>
       </c>
       <c r="G3" t="n">
-        <v>342.7224034979613</v>
+        <v>168.9523220735541</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>201.8637057628869</v>
       </c>
       <c r="G4" t="n">
-        <v>398.1307590522001</v>
+        <v>196.2670532893132</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469631</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>201.863705762887</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590521999</v>
+        <v>196.2670532893132</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>201.8637057628869</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522001</v>
+        <v>196.2670532893132</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.140788987815579</v>
+        <v>0.8393621794714871</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466299</v>
+        <v>8.59611792051237</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760113</v>
+        <v>32.35951042407454</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461251</v>
+        <v>71.23981577991819</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884597</v>
+        <v>106.7700168369463</v>
       </c>
       <c r="L14" t="n">
-        <v>22.217558194707</v>
+        <v>132.4576471369468</v>
       </c>
       <c r="M14" t="n">
-        <v>24.7213143567723</v>
+        <v>147.3846542961229</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840331</v>
+        <v>149.7694920885462</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081215</v>
+        <v>141.4230844164266</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411504</v>
+        <v>120.7013306107243</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796961</v>
+        <v>90.64167255840161</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587037</v>
+        <v>52.72558450622585</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847509</v>
+        <v>19.12696566470653</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626972</v>
+        <v>3.674307940636437</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.06714897435771895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.4490983585728814</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052018</v>
+        <v>4.33734467358546</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727676</v>
+        <v>15.46237769647859</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779982</v>
+        <v>42.42994623692298</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335883</v>
+        <v>72.51953626130603</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358772</v>
+        <v>97.51146596995831</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192328</v>
+        <v>113.7912814682252</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833406</v>
+        <v>116.8029980921636</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689047</v>
+        <v>106.8519239364171</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650261</v>
+        <v>85.75808919099173</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164365</v>
+        <v>57.32701152589974</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263565</v>
+        <v>27.88349282437593</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504675</v>
+        <v>8.34180503752698</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497748</v>
+        <v>1.810181541791569</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.02954594464295273</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.3765089776358784</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623698</v>
+        <v>3.347507092071721</v>
       </c>
       <c r="I16" t="n">
-        <v>1.89918574522732</v>
+        <v>11.32265180017715</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174383</v>
+        <v>26.6191847188566</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170838</v>
+        <v>43.74349758351386</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894673</v>
+        <v>55.97661654779233</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948808</v>
+        <v>59.01949364886773</v>
       </c>
       <c r="N16" t="n">
-        <v>9.66414560139404</v>
+        <v>57.61614200495223</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179675</v>
+        <v>53.21783258438763</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938405</v>
+        <v>45.53704944061567</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.28821036858792</v>
+        <v>31.52749266367342</v>
       </c>
       <c r="R16" t="n">
-        <v>2.83959271339006</v>
+        <v>16.92921275806413</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025626</v>
+        <v>6.561524637527078</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457194</v>
+        <v>1.60872017717148</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.02053685332559339</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35427,10 +35427,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023554</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="N12" t="n">
-        <v>151.298066666745</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199195</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>59.29052642530567</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>210.8255783631305</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751702</v>
+        <v>314.35244671741</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223321</v>
+        <v>366.5519545616826</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837966</v>
+        <v>357.7033529039395</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118708</v>
+        <v>292.1250542574853</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503281</v>
+        <v>211.2670430269374</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424808</v>
+        <v>80.6509733438568</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315784</v>
+        <v>199.1433342995256</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>329.7974314935433</v>
       </c>
       <c r="M15" t="n">
-        <v>231.6067186693945</v>
+        <v>437.3623112962068</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.8036603523838</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891755</v>
+        <v>63.99121656576234</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821095</v>
+        <v>270.2464504165986</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.4225251757273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>21.47400575763101</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721081</v>
+        <v>83.56664180810847</v>
       </c>
       <c r="M16" t="n">
-        <v>49.4834113647894</v>
+        <v>98.60337061070831</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062263</v>
+        <v>101.7483143841808</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421935</v>
+        <v>77.8029604984273</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831893</v>
+        <v>42.81560870550916</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36919,19 +36919,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38031,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>387643.4472495852</v>
+        <v>453961.0624690952</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009819</v>
+        <v>406463.298100982</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8174907.029588638</v>
+        <v>8174907.029588637</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -721,7 +721,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.35401783591139</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>130.0567675788274</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,14 +895,14 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>172.5764158182482</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
     </row>
     <row r="7">
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>29.79900896488263</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>46.68561093626613</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>20.75911149906596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>276.1565137023555</v>
@@ -1454,10 +1454,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>109.4139830574008</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>181.6787987329812</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.2716366332242</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463314</v>
+        <v>168.8699030350565</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492382</v>
+        <v>97.14353343492377</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>116.2509914379191</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493647</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826721</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663109</v>
+        <v>163.3413660663108</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>1.261231109399691</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>21.26781836854102</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270811</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.63455058802093</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>53.91908259411186</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>124.504101256633</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>65.85619905024714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.764863467406604</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>107.8367894856927</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>57.30159287878429</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>215.0393446428039</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>375.9426282811233</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>67.17737911999792</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>277.2408659893539</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>324.4964282009512</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>59.72683757586846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>350.9522964275093</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>327.6735853941362</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>56.881969878158</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>292.4116868811958</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>313.8597766108648</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.028559943668006</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>336.5765604298713</v>
+        <v>89.65996150537407</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>3.51694302452181</v>
+        <v>262.4008770978201</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U40" t="n">
-        <v>189.5968436493439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>295.9508027556515</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>141.7286350509856</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>49.92693022021933</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>208.3423105940807</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>276.9993050405681</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>369.4185579972125</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>94.59270453218367</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V2" t="n">
-        <v>251.810259228364</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>177.2844059680867</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>30.7498479949717</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>832.6866832087903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>630.5000885675563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>630.5000885675563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>395.3479803358136</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>395.3479803358136</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4964801302808</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="4">
@@ -4515,10 +4515,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W6" t="n">
-        <v>554.5854353412691</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X6" t="n">
-        <v>346.7339351357363</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y6" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>333.7844730889342</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.38115216564972</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C9" t="n">
-        <v>49.38115216564972</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>372.2103388526884</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>212.9728838472329</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>66.43832587411791</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>66.43832587411791</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.38115216564972</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="10">
@@ -4995,16 +4995,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>267.7881344992537</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>267.7881344992537</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
-        <v>267.7881344992537</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F11" t="n">
-        <v>267.7881344992537</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5044,19 +5044,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5071,22 +5071,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X11" t="n">
-        <v>825.6800813726992</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>504.7174150440222</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C12" t="n">
-        <v>330.2643857628952</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
         <v>22.09252109618844</v>
@@ -5120,52 +5120,52 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T12" t="n">
-        <v>994.1068800039666</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U12" t="n">
-        <v>994.1068800039666</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="V12" t="n">
-        <v>758.9547717722239</v>
+        <v>450.7829071055171</v>
       </c>
       <c r="W12" t="n">
-        <v>504.7174150440222</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="X12" t="n">
-        <v>504.7174150440222</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y12" t="n">
-        <v>504.7174150440222</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="13">
@@ -5226,19 +5226,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
         <v>22.09252109618844</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>654.6699625281963</v>
+        <v>985.7328498717679</v>
       </c>
       <c r="C14" t="n">
-        <v>654.6699625281963</v>
+        <v>985.7328498717679</v>
       </c>
       <c r="D14" t="n">
-        <v>654.6699625281963</v>
+        <v>627.4671512650175</v>
       </c>
       <c r="E14" t="n">
-        <v>654.6699625281963</v>
+        <v>627.4671512650175</v>
       </c>
       <c r="F14" t="n">
-        <v>243.6840577385887</v>
+        <v>627.4671512650175</v>
       </c>
       <c r="G14" t="n">
-        <v>218.1571520484632</v>
+        <v>208.8172771885896</v>
       </c>
       <c r="H14" t="n">
-        <v>218.1571520484632</v>
+        <v>208.8172771885896</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721939</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827204</v>
+        <v>96.93923871827212</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977712</v>
+        <v>305.6565612977715</v>
       </c>
       <c r="L14" t="n">
-        <v>616.865483548007</v>
+        <v>616.8654835480075</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640729</v>
+        <v>979.7519185640734</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938973</v>
+        <v>1333.878237938974</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653883</v>
+        <v>1623.082041653884</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250551</v>
+        <v>1832.236414250552</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.08087786097</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R14" t="n">
-        <v>1813.956096613572</v>
+        <v>1813.956096613573</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.956096613572</v>
+        <v>1813.956096613573</v>
       </c>
       <c r="T14" t="n">
-        <v>1592.318175781759</v>
+        <v>1592.31817578176</v>
       </c>
       <c r="U14" t="n">
-        <v>1338.501505141881</v>
+        <v>1338.501505141882</v>
       </c>
       <c r="V14" t="n">
-        <v>1007.43861779831</v>
+        <v>1338.501505141882</v>
       </c>
       <c r="W14" t="n">
-        <v>654.6699625281963</v>
+        <v>985.7328498717679</v>
       </c>
       <c r="X14" t="n">
-        <v>654.6699625281963</v>
+        <v>985.7328498717679</v>
       </c>
       <c r="Y14" t="n">
-        <v>654.6699625281963</v>
+        <v>985.7328498717679</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>748.6504747854824</v>
+        <v>880.3593260029905</v>
       </c>
       <c r="C15" t="n">
-        <v>631.2252309087964</v>
+        <v>705.9062967218636</v>
       </c>
       <c r="D15" t="n">
-        <v>482.2908212475452</v>
+        <v>556.9718870606123</v>
       </c>
       <c r="E15" t="n">
-        <v>323.0533662420897</v>
+        <v>397.7344320551568</v>
       </c>
       <c r="F15" t="n">
-        <v>176.5188082689747</v>
+        <v>251.1998740820418</v>
       </c>
       <c r="G15" t="n">
-        <v>38.24161755721939</v>
+        <v>112.9226833702865</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721939</v>
+        <v>112.9226833702865</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721939</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="J15" t="n">
-        <v>38.24161755721939</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="K15" t="n">
-        <v>235.3935185137498</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="L15" t="n">
-        <v>561.8929756923576</v>
+        <v>270.7074613114474</v>
       </c>
       <c r="M15" t="n">
-        <v>994.8816638756023</v>
+        <v>703.6961494946922</v>
       </c>
       <c r="N15" t="n">
-        <v>1455.037287624462</v>
+        <v>1163.851773243552</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.388592024567</v>
+        <v>1518.388592024568</v>
       </c>
       <c r="P15" t="n">
         <v>1785.932577937</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.08087786097</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680902</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826042</v>
+        <v>1747.089599006111</v>
       </c>
       <c r="T15" t="n">
-        <v>1674.085213826042</v>
+        <v>1747.089599006111</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.891439950959</v>
+        <v>1745.815628188536</v>
       </c>
       <c r="V15" t="n">
-        <v>1210.739331719217</v>
+        <v>1510.663519956793</v>
       </c>
       <c r="W15" t="n">
-        <v>956.5019749910152</v>
+        <v>1256.426163228591</v>
       </c>
       <c r="X15" t="n">
-        <v>748.6504747854824</v>
+        <v>1048.574663023059</v>
       </c>
       <c r="Y15" t="n">
-        <v>748.6504747854824</v>
+        <v>1048.574663023059</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.3079220982519</v>
+        <v>188.3582569695552</v>
       </c>
       <c r="C16" t="n">
-        <v>205.3079220982519</v>
+        <v>188.3582569695552</v>
       </c>
       <c r="D16" t="n">
-        <v>205.3079220982519</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="E16" t="n">
-        <v>205.3079220982519</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="F16" t="n">
-        <v>205.3079220982519</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="G16" t="n">
-        <v>205.3079220982519</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="H16" t="n">
-        <v>183.8252772815438</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721939</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721939</v>
+        <v>38.24161755721941</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727408</v>
+        <v>59.50088325727415</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473015</v>
+        <v>142.2318586473016</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519027</v>
+        <v>239.8491955519029</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922417</v>
+        <v>340.5800267922419</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856847</v>
+        <v>417.604957685685</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041388</v>
+        <v>459.9924103041391</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041388</v>
+        <v>404.8059955687644</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041388</v>
+        <v>242.8219767615873</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041388</v>
+        <v>242.8219767615873</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041388</v>
+        <v>242.8219767615873</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041388</v>
+        <v>242.8219767615873</v>
       </c>
       <c r="V16" t="n">
-        <v>205.3079220982519</v>
+        <v>188.3582569695552</v>
       </c>
       <c r="W16" t="n">
-        <v>205.3079220982519</v>
+        <v>188.3582569695552</v>
       </c>
       <c r="X16" t="n">
-        <v>205.3079220982519</v>
+        <v>188.3582569695552</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.3079220982519</v>
+        <v>188.3582569695552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>924.8632283272182</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>924.8632283272182</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>506.899420225405</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>179.7047002614079</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1927.025048290972</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X17" t="n">
-        <v>1553.559290029893</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5600,16 +5600,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5618,19 +5618,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.80648027229032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
         <v>53.94298182036445</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>245.45494510253</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.45494510253</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.8926947117851</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117851</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942546</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W20" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X20" t="n">
-        <v>1659.631866751719</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y20" t="n">
-        <v>1269.492534775907</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5843,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>598.0446400632119</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1485.892406545185</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C23" t="n">
-        <v>1485.892406545185</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545185</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y23" t="n">
-        <v>1485.892406545185</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6074,19 +6074,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>667.7988452409105</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6186,13 +6186,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857191</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.680947310029</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W26" t="n">
-        <v>2369.374921118271</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X26" t="n">
-        <v>1995.909162857191</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y26" t="n">
-        <v>1995.909162857191</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>667.7988452409105</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
@@ -6463,7 +6463,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733125</v>
@@ -6499,16 +6499,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2366.165671428186</v>
       </c>
       <c r="X29" t="n">
-        <v>2013.317548404538</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="Y29" t="n">
-        <v>1623.178216428726</v>
+        <v>1602.560581191294</v>
       </c>
     </row>
     <row r="30">
@@ -6524,31 +6524,31 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>111.3995170508271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W31" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1717.512263598976</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="C32" t="n">
-        <v>1422.14692331494</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.14692331494</v>
+        <v>935.4249399995942</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>935.4249399995942</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>524.4390352099867</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>524.4390352099867</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X32" t="n">
-        <v>1717.512263598976</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1717.512263598976</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6782,22 +6782,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.6044479702274</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C34" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>359.6044479702274</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>359.6044479702274</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>359.6044479702274</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.6044479702274</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
         <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>1971.274048960884</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>1631.297725294347</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X35" t="n">
-        <v>1631.297725294347</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7131,16 +7131,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1111.918385033061</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C38" t="n">
-        <v>742.9558680926493</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D38" t="n">
-        <v>384.6901694858988</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="E38" t="n">
-        <v>384.6901694858988</v>
+        <v>1217.618876898984</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W38" t="n">
-        <v>1871.983983358263</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X38" t="n">
-        <v>1498.518225097183</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y38" t="n">
-        <v>1498.518225097183</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7271,13 +7271,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7362,16 +7362,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U40" t="n">
-        <v>536.6170209242687</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V40" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
         <v>53.94298182036445</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1525.597764264522</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C41" t="n">
-        <v>1156.63524732411</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D41" t="n">
-        <v>857.6950425204218</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2302.336936304455</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>2302.336936304455</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X41" t="n">
-        <v>2302.336936304455</v>
+        <v>1397.760858589454</v>
       </c>
       <c r="Y41" t="n">
-        <v>1912.197604328644</v>
+        <v>1397.760858589454</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424003</v>
@@ -7499,13 +7499,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C43" t="n">
-        <v>677.697741559748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>527.5811021474123</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>527.5811021474123</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1464.687040303175</v>
+        <v>1154.32125595057</v>
       </c>
       <c r="C44" t="n">
-        <v>1464.687040303175</v>
+        <v>785.3587390101579</v>
       </c>
       <c r="D44" t="n">
-        <v>1184.889762484419</v>
+        <v>427.0930404034074</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861747</v>
+        <v>427.0930404034074</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861747</v>
+        <v>427.0930404034074</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7684,16 +7684,16 @@
         <v>2224.752638628376</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.752638628376</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.752638628376</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X44" t="n">
-        <v>1851.286880367296</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1851.286880367296</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7754,16 +7754,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207637</v>
@@ -7772,7 +7772,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>281.3133266100198</v>
+        <v>354.6541654994895</v>
       </c>
       <c r="N12" t="n">
         <v>111.7499598249992</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974372</v>
+        <v>84.40768042974366</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>65.32190271305288</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>275.8568974000451</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>99.73553707378969</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451751</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,10 +9956,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516223</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719075</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>221.0467526719075</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22609,7 +22609,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>119.0371437604433</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>125.9894993272992</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>41.6264035250104</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22755,13 +22755,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.0597660285826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>79.11856734267138</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>44.49188237543422</v>
       </c>
     </row>
     <row r="7">
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,19 +23105,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>117.6460565997561</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>65.54983330023033</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>94.79428962526623</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23311,10 +23311,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>230.5752782897453</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>110.0814249536981</v>
@@ -23342,10 +23342,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>90.44711791477106</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>51.12178841644408</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206872</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>50.57846144115925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>389.1917387024394</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.246476111274802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>56.45750755039666</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493648</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826718</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6506050269322</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,13 +23670,13 @@
         <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>137.6118470468269</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781617</v>
+        <v>66.73999539781614</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802097</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
@@ -23712,7 +23712,7 @@
         <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>198.2185607297162</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>27.42721498822827</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>283.3847696671659</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>157.4819576312212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.8970521777879</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>312.4295077996848</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>275.2775795709196</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>139.6436969778791</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>30.93341746058815</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>151.4072742320969</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>105.4929756741267</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24493,7 +24493,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>24.74454051646183</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>192.4108057479596</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.78154523597129</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>21.56738332327677</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>99.28891896363714</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24888,10 +24888,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>72.86120488981175</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>10.06299615349235</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>156.2425264275697</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,13 +25092,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>246.10908338016</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>12.66440828754168</v>
+        <v>259.5810072120389</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>53.97620323457203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.3591027171896</v>
+        <v>144.4751686438914</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,19 +25602,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U40" t="n">
-        <v>96.68503059263386</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>58.73223886503143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>228.0024656274835</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>117.3198908784085</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>77.93956364789699</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>77.68373658011484</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>44.36561202358246</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>54.02276848602868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.7086927898</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.7086927898</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674823.9207820224</v>
+        <v>674823.9207820226</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
@@ -26331,31 +26331,31 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126063</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689325</v>
+        <v>195194.8921689328</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328027</v>
+        <v>185152.0893328025</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213621</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138662</v>
+        <v>49441.87186138666</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112651</v>
+        <v>47231.86264112646</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
         <v>42017.42535589615</v>
@@ -26441,7 +26441,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
         <v>44802.65617556861</v>
@@ -26450,7 +26450,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
         <v>44802.65617556861</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221575</v>
+        <v>33615.28060221577</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50357.5982461801</v>
+        <v>-39361.38868814368</v>
       </c>
       <c r="C6" t="n">
-        <v>30411.83328536763</v>
+        <v>41408.04284340407</v>
       </c>
       <c r="D6" t="n">
-        <v>30411.83328536768</v>
+        <v>41408.04284340407</v>
       </c>
       <c r="E6" t="n">
-        <v>31726.03702486756</v>
+        <v>42226.29435705968</v>
       </c>
       <c r="F6" t="n">
-        <v>-93978.10709620458</v>
+        <v>-86032.68655735334</v>
       </c>
       <c r="G6" t="n">
-        <v>-53932.54930499388</v>
+        <v>-48470.97693375639</v>
       </c>
       <c r="H6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="I6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="J6" t="n">
-        <v>68159.59742870263</v>
+        <v>73621.16979993993</v>
       </c>
       <c r="K6" t="n">
-        <v>131219.540027809</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="L6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="M6" t="n">
-        <v>122461.9570325953</v>
+        <v>127923.5294038324</v>
       </c>
       <c r="N6" t="n">
-        <v>81777.66816642229</v>
+        <v>87239.24053765935</v>
       </c>
       <c r="O6" t="n">
-        <v>83987.67738668231</v>
+        <v>89449.24975791969</v>
       </c>
       <c r="P6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990462</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435326</v>
+        <v>208.7913421435328</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26801,19 +26801,19 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652424</v>
+        <v>478.0202194652426</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244072</v>
+        <v>173.7700814244075</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735541</v>
+        <v>168.9523220735538</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628869</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893132</v>
+        <v>196.267053289313</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469631</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.863705762887</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893132</v>
+        <v>196.267053289313</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628869</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893132</v>
+        <v>196.267053289313</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714871</v>
+        <v>0.8393621794714881</v>
       </c>
       <c r="H14" t="n">
-        <v>8.59611792051237</v>
+        <v>8.596117920512379</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407454</v>
+        <v>32.35951042407457</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991819</v>
+        <v>71.23981577991827</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369463</v>
+        <v>106.7700168369464</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369468</v>
+        <v>132.4576471369469</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961229</v>
+        <v>147.384654296123</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885462</v>
+        <v>149.7694920885464</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164266</v>
+        <v>141.4230844164268</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107243</v>
+        <v>120.7013306107244</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840161</v>
+        <v>90.64167255840171</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622585</v>
+        <v>52.72558450622591</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470653</v>
+        <v>19.12696566470655</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636437</v>
+        <v>3.674307940636441</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771895</v>
+        <v>0.06714897435771902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728814</v>
+        <v>0.4490983585728819</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33734467358546</v>
+        <v>4.337344673585465</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647859</v>
+        <v>15.46237769647861</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692298</v>
+        <v>42.42994623692303</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130603</v>
+        <v>72.51953626130611</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995831</v>
+        <v>97.51146596995842</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682252</v>
+        <v>113.7912814682254</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921636</v>
+        <v>116.8029980921637</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364171</v>
+        <v>106.8519239364172</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099173</v>
+        <v>85.75808919099181</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589974</v>
+        <v>57.32701152589981</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437593</v>
+        <v>27.88349282437596</v>
       </c>
       <c r="S15" t="n">
-        <v>8.34180503752698</v>
+        <v>8.341805037526989</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791569</v>
+        <v>1.810181541791571</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295273</v>
+        <v>0.02954594464295277</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358784</v>
+        <v>0.3765089776358788</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071721</v>
+        <v>3.347507092071725</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017715</v>
+        <v>11.32265180017716</v>
       </c>
       <c r="J16" t="n">
-        <v>26.6191847188566</v>
+        <v>26.61918471885663</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351386</v>
+        <v>43.74349758351391</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779233</v>
+        <v>55.97661654779239</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886773</v>
+        <v>59.01949364886779</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495223</v>
+        <v>57.61614200495229</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438763</v>
+        <v>53.21783258438769</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061567</v>
+        <v>45.53704944061572</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367342</v>
+        <v>31.52749266367345</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806413</v>
+        <v>16.92921275806415</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527078</v>
+        <v>6.561524637527085</v>
       </c>
       <c r="T16" t="n">
-        <v>1.60872017717148</v>
+        <v>1.608720177171482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559339</v>
+        <v>0.02053685332559341</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
@@ -35497,7 +35497,7 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2658797799248</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530567</v>
+        <v>59.29052642530576</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631305</v>
+        <v>210.8255783631306</v>
       </c>
       <c r="L14" t="n">
-        <v>314.35244671741</v>
+        <v>314.3524467174101</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616826</v>
+        <v>366.5519545616828</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039395</v>
+        <v>357.7033529039396</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574853</v>
+        <v>292.1250542574854</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269374</v>
+        <v>211.2670430269375</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.6509733438568</v>
+        <v>80.6509733438569</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995256</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935433</v>
+        <v>234.8139835901293</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962068</v>
+        <v>437.3623112962069</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523838</v>
+        <v>464.8036603523839</v>
       </c>
       <c r="O15" t="n">
-        <v>63.99121656576234</v>
+        <v>358.1179987687023</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165986</v>
+        <v>270.2464504165987</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757273</v>
+        <v>127.4225251757274</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763101</v>
+        <v>21.47400575763105</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810847</v>
+        <v>83.56664180810853</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070831</v>
+        <v>98.60337061070838</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841808</v>
+        <v>101.7483143841809</v>
       </c>
       <c r="O16" t="n">
-        <v>77.8029604984273</v>
+        <v>77.80296049842735</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550916</v>
+        <v>42.81560870550921</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35980,7 +35980,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36919,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624587</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.997506289869</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,16 +37867,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
